--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>22.90513968520577</v>
+        <v>89.266415605616</v>
       </c>
       <c r="R2">
-        <v>206.146257166852</v>
+        <v>803.3977404505441</v>
       </c>
       <c r="S2">
-        <v>0.003884923224756256</v>
+        <v>0.01424970351363527</v>
       </c>
       <c r="T2">
-        <v>0.003884923224756257</v>
+        <v>0.01424970351363527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>12.225212836614</v>
+        <v>37.46051586493201</v>
       </c>
       <c r="R3">
-        <v>110.026915529526</v>
+        <v>337.1446427843881</v>
       </c>
       <c r="S3">
-        <v>0.002073508999695209</v>
+        <v>0.005979866458416735</v>
       </c>
       <c r="T3">
-        <v>0.002073508999695209</v>
+        <v>0.005979866458416734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.5762631420293333</v>
+        <v>3.577061173059334</v>
       </c>
       <c r="R4">
-        <v>5.186368278264</v>
+        <v>32.193550557534</v>
       </c>
       <c r="S4">
-        <v>9.773955080862271E-05</v>
+        <v>0.0005710105062516378</v>
       </c>
       <c r="T4">
-        <v>9.773955080862272E-05</v>
+        <v>0.0005710105062516377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>6.145067892684666</v>
+        <v>17.12291897913667</v>
       </c>
       <c r="R5">
-        <v>55.305611034162</v>
+        <v>154.10627081223</v>
       </c>
       <c r="S5">
-        <v>0.001042260265691114</v>
+        <v>0.002733351810816355</v>
       </c>
       <c r="T5">
-        <v>0.001042260265691114</v>
+        <v>0.002733351810816354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I6">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J6">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>2796.237874186958</v>
+        <v>3556.410966402518</v>
       </c>
       <c r="R6">
-        <v>25166.14086768263</v>
+        <v>32007.69869762266</v>
       </c>
       <c r="S6">
-        <v>0.4742677673512902</v>
+        <v>0.5677140893365128</v>
       </c>
       <c r="T6">
-        <v>0.4742677673512903</v>
+        <v>0.5677140893365128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J7">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>1492.442465907168</v>
@@ -889,10 +889,10 @@
         <v>13431.98219316451</v>
       </c>
       <c r="S7">
-        <v>0.2531320252615682</v>
+        <v>0.2382403561972741</v>
       </c>
       <c r="T7">
-        <v>0.2531320252615682</v>
+        <v>0.238240356197274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>70.34966149021868</v>
+        <v>142.5115985340463</v>
       </c>
       <c r="R8">
-        <v>633.1469534119681</v>
+        <v>1282.604386806416</v>
       </c>
       <c r="S8">
-        <v>0.01193195228377565</v>
+        <v>0.02274929504659777</v>
       </c>
       <c r="T8">
-        <v>0.01193195228377565</v>
+        <v>0.02274929504659777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>750.1840991641494</v>
+        <v>682.1841833917246</v>
       </c>
       <c r="R9">
-        <v>6751.656892477345</v>
+        <v>6139.657650525521</v>
       </c>
       <c r="S9">
-        <v>0.1272381513380617</v>
+        <v>0.1088978681296115</v>
       </c>
       <c r="T9">
-        <v>0.1272381513380617</v>
+        <v>0.1088978681296115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H10">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I10">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J10">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>2.218795258751555</v>
+        <v>0.5748649943306666</v>
       </c>
       <c r="R10">
-        <v>19.969157328764</v>
+        <v>5.173784948976</v>
       </c>
       <c r="S10">
-        <v>0.0003763281669602944</v>
+        <v>9.176637903521087E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003763281669602944</v>
+        <v>9.176637903521087E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H11">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I11">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J11">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>1.184242691898</v>
+        <v>0.241241222628</v>
       </c>
       <c r="R11">
-        <v>10.658184227082</v>
+        <v>2.171171003652</v>
       </c>
       <c r="S11">
-        <v>0.000200858497294996</v>
+        <v>3.850962172496607E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002008584972949959</v>
+        <v>3.850962172496607E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H12">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.05582196593866667</v>
+        <v>0.02303584429844445</v>
       </c>
       <c r="R12">
-        <v>0.502397693448</v>
+        <v>0.207322598686</v>
       </c>
       <c r="S12">
-        <v>9.467920951678343E-06</v>
+        <v>3.677239073755835E-06</v>
       </c>
       <c r="T12">
-        <v>9.467920951678341E-06</v>
+        <v>3.677239073755835E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H13">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.5952658526593333</v>
+        <v>0.1102695415188889</v>
       </c>
       <c r="R13">
-        <v>5.357392673934</v>
+        <v>0.9924258736699999</v>
       </c>
       <c r="S13">
-        <v>0.0001009625860258011</v>
+        <v>1.760245734712581E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001009625860258011</v>
+        <v>1.760245734712581E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H14">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I14">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J14">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>400.0927501381413</v>
+        <v>144.72340827704</v>
       </c>
       <c r="R14">
-        <v>3600.834751243272</v>
+        <v>1302.51067449336</v>
       </c>
       <c r="S14">
-        <v>0.06785942537046367</v>
+        <v>0.02310236885215391</v>
       </c>
       <c r="T14">
-        <v>0.06785942537046367</v>
+        <v>0.02310236885215391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H15">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I15">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J15">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>213.542422881804</v>
+        <v>60.73295869458001</v>
       </c>
       <c r="R15">
-        <v>1921.881805936236</v>
+        <v>546.5966282512201</v>
       </c>
       <c r="S15">
-        <v>0.03621876703332532</v>
+        <v>0.009694874035573757</v>
       </c>
       <c r="T15">
-        <v>0.03621876703332531</v>
+        <v>0.009694874035573755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H16">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I16">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J16">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>10.065806559856</v>
+        <v>5.799319722523335</v>
       </c>
       <c r="R16">
-        <v>90.592259038704</v>
+        <v>52.19387750271001</v>
       </c>
       <c r="S16">
-        <v>0.001707253752551701</v>
+        <v>0.0009257522671441963</v>
       </c>
       <c r="T16">
-        <v>0.001707253752551701</v>
+        <v>0.0009257522671441962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H17">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>107.338228308548</v>
+        <v>27.76057689221667</v>
       </c>
       <c r="R17">
-        <v>966.0440547769319</v>
+        <v>249.84519202995</v>
       </c>
       <c r="S17">
-        <v>0.01820555481394443</v>
+        <v>0.004431453726441268</v>
       </c>
       <c r="T17">
-        <v>0.01820555481394443</v>
+        <v>0.004431453726441268</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H18">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I18">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J18">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>0.6586105268768889</v>
+        <v>1.432613175285333</v>
       </c>
       <c r="R18">
-        <v>5.927494741892001</v>
+        <v>12.893518577568</v>
       </c>
       <c r="S18">
-        <v>0.0001117064277754914</v>
+        <v>0.0002286897357650739</v>
       </c>
       <c r="T18">
-        <v>0.0001117064277754914</v>
+        <v>0.0002286897357650739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H19">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I19">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J19">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>0.3515217098940001</v>
+        <v>0.6011939453040001</v>
       </c>
       <c r="R19">
-        <v>3.163695389046</v>
+        <v>5.410745507736</v>
       </c>
       <c r="S19">
-        <v>5.962132838051555E-05</v>
+        <v>9.596930062279432E-05</v>
       </c>
       <c r="T19">
-        <v>5.962132838051554E-05</v>
+        <v>9.596930062279428E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H20">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I20">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J20">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>0.01656977328266667</v>
+        <v>0.05740731192755556</v>
       </c>
       <c r="R20">
-        <v>0.149127959544</v>
+        <v>0.5166658073480001</v>
       </c>
       <c r="S20">
-        <v>2.810386574344052E-06</v>
+        <v>9.163997108347871E-06</v>
       </c>
       <c r="T20">
-        <v>2.810386574344052E-06</v>
+        <v>9.16399710834787E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H21">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I21">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J21">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>0.1766942467113333</v>
+        <v>0.2748012134511111</v>
       </c>
       <c r="R21">
-        <v>1.590248220402</v>
+        <v>2.47321092106</v>
       </c>
       <c r="S21">
-        <v>2.996897605357275E-05</v>
+        <v>4.386684275714525E-05</v>
       </c>
       <c r="T21">
-        <v>2.996897605357275E-05</v>
+        <v>4.386684275714523E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H22">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I22">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J22">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N22">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q22">
-        <v>4.675443952131111</v>
+        <v>0.6856569018693333</v>
       </c>
       <c r="R22">
-        <v>42.07899556918</v>
+        <v>6.170912116824001</v>
       </c>
       <c r="S22">
-        <v>0.000792998473063761</v>
+        <v>0.0001094522222879646</v>
       </c>
       <c r="T22">
-        <v>0.000792998473063761</v>
+        <v>0.0001094522222879646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H23">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I23">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J23">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>4.204062</v>
       </c>
       <c r="O23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q23">
-        <v>2.49543544401</v>
+        <v>0.287734878522</v>
       </c>
       <c r="R23">
-        <v>22.45891899609</v>
+        <v>2.589613906698</v>
       </c>
       <c r="S23">
-        <v>0.0004232488972148043</v>
+        <v>4.593145901124779E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004232488972148042</v>
+        <v>4.593145901124778E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H24">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I24">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J24">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N24">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q24">
-        <v>0.1176280109733333</v>
+        <v>0.02747546952655556</v>
       </c>
       <c r="R24">
-        <v>1.05865209876</v>
+        <v>0.247279225739</v>
       </c>
       <c r="S24">
-        <v>1.995079698236214E-05</v>
+        <v>4.385941700416007E-06</v>
       </c>
       <c r="T24">
-        <v>1.995079698236213E-05</v>
+        <v>4.385941700416007E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H25">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I25">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J25">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N25">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q25">
-        <v>1.254343824536667</v>
+        <v>0.1315214406061111</v>
       </c>
       <c r="R25">
-        <v>11.28909442083</v>
+        <v>1.183692965455</v>
       </c>
       <c r="S25">
-        <v>0.0002127482967903282</v>
+        <v>2.099492313664005E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002127482967903282</v>
+        <v>2.099492313664005E-05</v>
       </c>
     </row>
   </sheetData>
